--- a/data/trans_orig/P20D2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P20D2_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{666A2AB7-3F54-4129-B4C3-52056AEC7EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C620ADD8-48AB-4505-9D8D-61E67B2483C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{90640428-5317-4BF9-9F36-F86DD91B18B6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{064A2AD3-827E-4378-905E-68DA7B22A862}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>74,99%</t>
+    <t>74,73%</t>
   </si>
   <si>
     <t>55,71%</t>
@@ -89,10 +89,10 @@
     <t>29,8%</t>
   </si>
   <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
   </si>
   <si>
     <t>Sí, en algún momento</t>
@@ -101,7 +101,7 @@
     <t>15,07%</t>
   </si>
   <si>
-    <t>68,83%</t>
+    <t>73,51%</t>
   </si>
   <si>
     <t>0%</t>
@@ -113,7 +113,7 @@
     <t>11,06%</t>
   </si>
   <si>
-    <t>48,69%</t>
+    <t>50,51%</t>
   </si>
   <si>
     <t>Sí, todo o casi todo el tiempo</t>
@@ -122,7 +122,7 @@
     <t>64,51%</t>
   </si>
   <si>
-    <t>18,65%</t>
+    <t>17,65%</t>
   </si>
   <si>
     <t>44,29%</t>
@@ -131,10 +131,10 @@
     <t>59,13%</t>
   </si>
   <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
   </si>
   <si>
     <t>100%</t>
@@ -146,79 +146,79 @@
     <t>4,64%</t>
   </si>
   <si>
-    <t>29,57%</t>
+    <t>24,55%</t>
   </si>
   <si>
     <t>62,17%</t>
   </si>
   <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
   </si>
   <si>
     <t>32,46%</t>
   </si>
   <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
   </si>
   <si>
     <t>15,56%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
   </si>
   <si>
     <t>11,67%</t>
   </si>
   <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
   </si>
   <si>
     <t>13,68%</t>
   </si>
   <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
   </si>
   <si>
     <t>79,8%</t>
   </si>
   <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
   </si>
   <si>
     <t>26,16%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
   </si>
   <si>
     <t>53,86%</t>
   </si>
   <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -227,79 +227,79 @@
     <t>13,49%</t>
   </si>
   <si>
-    <t>50,3%</t>
+    <t>42,02%</t>
   </si>
   <si>
     <t>28,59%</t>
   </si>
   <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
   </si>
   <si>
     <t>21,64%</t>
   </si>
   <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
   </si>
   <si>
     <t>30,49%</t>
   </si>
   <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
   </si>
   <si>
     <t>14,71%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
   </si>
   <si>
     <t>21,98%</t>
   </si>
   <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
   </si>
   <si>
     <t>56,02%</t>
   </si>
   <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
   </si>
   <si>
     <t>56,7%</t>
   </si>
   <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
   </si>
   <si>
     <t>56,39%</t>
   </si>
   <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -308,235 +308,235 @@
     <t>24,49%</t>
   </si>
   <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
   </si>
   <si>
     <t>49,42%</t>
   </si>
   <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
   </si>
   <si>
     <t>32,95%</t>
   </si>
   <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>28,48%</t>
+    <t>31,94%</t>
   </si>
   <si>
     <t>10,42%</t>
   </si>
   <si>
-    <t>44,58%</t>
+    <t>49,76%</t>
   </si>
   <si>
     <t>7,6%</t>
   </si>
   <si>
-    <t>23,43%</t>
+    <t>23,98%</t>
   </si>
   <si>
     <t>69,36%</t>
   </si>
   <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
   </si>
   <si>
     <t>40,16%</t>
   </si>
   <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
     <t>14,27%</t>
   </si>
   <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
+    <t>46,27%</t>
   </si>
   <si>
     <t>55,75%</t>
   </si>
   <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
   </si>
   <si>
     <t>16,0%</t>
   </si>
   <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
   </si>
   <si>
     <t>50,85%</t>
   </si>
   <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
   </si>
   <si>
     <t>31,74%</t>
   </si>
   <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
   </si>
   <si>
     <t>12,69%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
   </si>
   <si>
     <t>10,62%</t>
   </si>
   <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
   </si>
   <si>
     <t>11,76%</t>
   </si>
   <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
   </si>
   <si>
     <t>71,31%</t>
   </si>
   <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
   </si>
   <si>
     <t>38,53%</t>
   </si>
   <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
   </si>
   <si>
     <t>56,5%</t>
   </si>
   <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -951,7 +951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97576ACD-549F-4244-AC0E-BBA67F676833}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1FEA57-FFEF-4E21-802D-5646C708AB92}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P20D2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P20D2_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C620ADD8-48AB-4505-9D8D-61E67B2483C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F23D844-A919-4841-B5FA-32023F697D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{064A2AD3-827E-4378-905E-68DA7B22A862}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{09FB8E80-7C3B-423E-97E4-8B832E2A9F76}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No</t>
@@ -140,7 +140,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>4,64%</t>
@@ -221,7 +221,7 @@
     <t>73,8%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -302,7 +302,7 @@
     <t>75,03%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>24,49%</t>
@@ -951,7 +951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1FEA57-FFEF-4E21-802D-5646C708AB92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF914C60-0BDE-4E80-BF86-AA4A12E2FB2B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P20D2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P20D2_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F23D844-A919-4841-B5FA-32023F697D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2671B4AC-C239-4668-84EA-89E0775AD6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{09FB8E80-7C3B-423E-97E4-8B832E2A9F76}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DC9FFDC8-787C-41EF-B07E-005746F3C7D5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>74,73%</t>
+    <t>74,99%</t>
   </si>
   <si>
     <t>55,71%</t>
@@ -89,10 +89,10 @@
     <t>29,8%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
   </si>
   <si>
     <t>Sí, en algún momento</t>
@@ -101,7 +101,7 @@
     <t>15,07%</t>
   </si>
   <si>
-    <t>73,51%</t>
+    <t>68,83%</t>
   </si>
   <si>
     <t>0%</t>
@@ -113,7 +113,7 @@
     <t>11,06%</t>
   </si>
   <si>
-    <t>50,51%</t>
+    <t>48,69%</t>
   </si>
   <si>
     <t>Sí, todo o casi todo el tiempo</t>
@@ -122,7 +122,7 @@
     <t>64,51%</t>
   </si>
   <si>
-    <t>17,65%</t>
+    <t>18,65%</t>
   </si>
   <si>
     <t>44,29%</t>
@@ -131,10 +131,10 @@
     <t>59,13%</t>
   </si>
   <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
   </si>
   <si>
     <t>100%</t>
@@ -146,79 +146,79 @@
     <t>4,64%</t>
   </si>
   <si>
-    <t>24,55%</t>
+    <t>29,57%</t>
   </si>
   <si>
     <t>62,17%</t>
   </si>
   <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
   </si>
   <si>
     <t>32,46%</t>
   </si>
   <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
   </si>
   <si>
     <t>15,56%</t>
   </si>
   <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
   </si>
   <si>
     <t>11,67%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
   </si>
   <si>
     <t>13,68%</t>
   </si>
   <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
   </si>
   <si>
     <t>79,8%</t>
   </si>
   <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
   </si>
   <si>
     <t>26,16%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
   </si>
   <si>
     <t>53,86%</t>
   </si>
   <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -227,79 +227,79 @@
     <t>13,49%</t>
   </si>
   <si>
-    <t>42,02%</t>
+    <t>50,3%</t>
   </si>
   <si>
     <t>28,59%</t>
   </si>
   <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
   </si>
   <si>
     <t>21,64%</t>
   </si>
   <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
   </si>
   <si>
     <t>30,49%</t>
   </si>
   <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
   </si>
   <si>
     <t>14,71%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
   </si>
   <si>
     <t>21,98%</t>
   </si>
   <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
   </si>
   <si>
     <t>56,02%</t>
   </si>
   <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
   </si>
   <si>
     <t>56,7%</t>
   </si>
   <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
   </si>
   <si>
     <t>56,39%</t>
   </si>
   <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -308,73 +308,73 @@
     <t>24,49%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
   </si>
   <si>
     <t>49,42%</t>
   </si>
   <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
   </si>
   <si>
     <t>32,95%</t>
   </si>
   <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>31,94%</t>
+    <t>28,48%</t>
   </si>
   <si>
     <t>10,42%</t>
   </si>
   <si>
-    <t>49,76%</t>
+    <t>44,58%</t>
   </si>
   <si>
     <t>7,6%</t>
   </si>
   <si>
-    <t>23,98%</t>
+    <t>23,43%</t>
   </si>
   <si>
     <t>69,36%</t>
   </si>
   <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
   </si>
   <si>
     <t>40,16%</t>
   </si>
   <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
   </si>
   <si>
     <t>59,45%</t>
   </si>
   <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -383,160 +383,160 @@
     <t>16,05%</t>
   </si>
   <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
   </si>
   <si>
     <t>62,74%</t>
   </si>
   <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
   </si>
   <si>
     <t>38,2%</t>
   </si>
   <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
   </si>
   <si>
     <t>4,19%</t>
   </si>
   <si>
-    <t>23,58%</t>
+    <t>25,06%</t>
   </si>
   <si>
     <t>8,11%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
   </si>
   <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
   </si>
   <si>
     <t>79,76%</t>
   </si>
   <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
   </si>
   <si>
     <t>29,15%</t>
   </si>
   <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
   </si>
   <si>
     <t>55,75%</t>
   </si>
   <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
   </si>
   <si>
     <t>16,0%</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
   </si>
   <si>
     <t>50,85%</t>
   </si>
   <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
   </si>
   <si>
     <t>31,74%</t>
   </si>
   <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
   </si>
   <si>
     <t>12,69%</t>
   </si>
   <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
   </si>
   <si>
     <t>10,62%</t>
   </si>
   <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
   </si>
   <si>
     <t>11,76%</t>
   </si>
   <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
   </si>
   <si>
     <t>71,31%</t>
   </si>
   <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
   </si>
   <si>
     <t>38,53%</t>
   </si>
   <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
   </si>
   <si>
     <t>56,5%</t>
   </si>
   <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -951,7 +951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF914C60-0BDE-4E80-BF86-AA4A12E2FB2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B238B515-10D8-457F-B1E1-CF8DFEEE2175}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P20D2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P20D2_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2671B4AC-C239-4668-84EA-89E0775AD6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABDED2FE-A914-4C14-A0ED-DF4B34BFB614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DC9FFDC8-787C-41EF-B07E-005746F3C7D5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0A2A0513-F1A7-4424-9248-E5D9C6AE3ACB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="145">
   <si>
     <t>Población según si durante su último ingreso estuvo acompañado/a por una mujer en 2023 (Tasa respuesta: 1,85%)</t>
   </si>
@@ -65,478 +65,409 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>20,42%</t>
+    <t>9,83%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
   </si>
   <si>
     <t>Sí, en algún momento</t>
   </si>
   <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
   </si>
   <si>
     <t>Sí, todo o casi todo el tiempo</t>
   </si>
   <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -951,8 +882,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B238B515-10D8-457F-B1E1-CF8DFEEE2175}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12282AC2-1499-4306-9B89-5A3C5F67E202}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1069,10 +1000,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>1230</v>
+        <v>1573</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1084,136 +1015,136 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>1216</v>
+        <v>7028</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N4" s="7">
-        <v>2447</v>
+        <v>8601</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>908</v>
+        <v>2441</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>1133</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N5" s="7">
-        <v>908</v>
+        <v>3575</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7">
-        <v>3887</v>
+        <v>11983</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I6" s="7">
-        <v>967</v>
+        <v>3390</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N6" s="7">
-        <v>4854</v>
+        <v>15372</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1222,204 +1153,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7">
-        <v>6026</v>
+        <v>15997</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I7" s="7">
-        <v>2183</v>
+        <v>11551</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="N7" s="7">
-        <v>8209</v>
+        <v>27548</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>492</v>
+        <v>1907</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
+        <v>7</v>
+      </c>
+      <c r="I8" s="7">
+        <v>3933</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="7">
         <v>9</v>
       </c>
-      <c r="I8" s="7">
-        <v>6161</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="7">
-        <v>10</v>
-      </c>
       <c r="N8" s="7">
-        <v>6652</v>
+        <v>5840</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
         <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>1647</v>
+        <v>3769</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9" s="7">
-        <v>1156</v>
+        <v>2062</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N9" s="7">
-        <v>2803</v>
+        <v>5831</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7">
+        <v>6611</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="7">
         <v>10</v>
       </c>
-      <c r="D10" s="7">
-        <v>8446</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="7">
-        <v>5</v>
-      </c>
       <c r="I10" s="7">
-        <v>2592</v>
+        <v>7846</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N10" s="7">
-        <v>11037</v>
+        <v>14456</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1428,204 +1359,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" s="7">
-        <v>10584</v>
+        <v>12287</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I11" s="7">
-        <v>9909</v>
+        <v>13841</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N11" s="7">
-        <v>20492</v>
+        <v>26128</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>1741</v>
+        <v>3493</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="H12" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>4327</v>
+        <v>3411</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
       </c>
       <c r="N12" s="7">
-        <v>6068</v>
+        <v>6904</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>3936</v>
+        <v>1085</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>2227</v>
+        <v>731</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M13" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>6162</v>
+        <v>1816</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="7">
-        <v>7231</v>
+        <v>9616</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I14" s="7">
-        <v>8581</v>
+        <v>2834</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M14" s="7">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N14" s="7">
-        <v>15812</v>
+        <v>12450</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1634,204 +1565,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15" s="7">
-        <v>12908</v>
+        <v>14195</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I15" s="7">
-        <v>15135</v>
+        <v>6975</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N15" s="7">
-        <v>28042</v>
+        <v>21169</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>3609</v>
+        <v>3211</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I16" s="7">
-        <v>3740</v>
+        <v>10982</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M16" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="N16" s="7">
-        <v>7350</v>
+        <v>14193</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>907</v>
+        <v>835</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>788</v>
+        <v>1432</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>1696</v>
+        <v>2266</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D18" s="7">
-        <v>10224</v>
+        <v>15753</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="H18" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I18" s="7">
-        <v>3039</v>
+        <v>5063</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M18" s="7">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N18" s="7">
-        <v>13263</v>
+        <v>20816</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1840,204 +1771,204 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D19" s="7">
-        <v>14740</v>
+        <v>19798</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="I19" s="7">
-        <v>7567</v>
+        <v>17477</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="N19" s="7">
-        <v>22308</v>
+        <v>37275</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D20" s="7">
-        <v>3365</v>
+        <v>10184</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H20" s="7">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I20" s="7">
-        <v>11872</v>
+        <v>25354</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="M20" s="7">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="N20" s="7">
-        <v>15238</v>
+        <v>35538</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D21" s="7">
-        <v>879</v>
+        <v>8130</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H21" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I21" s="7">
-        <v>1534</v>
+        <v>5358</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="M21" s="7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="N21" s="7">
-        <v>2414</v>
+        <v>13488</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D22" s="7">
-        <v>16721</v>
+        <v>43963</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H22" s="7">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="I22" s="7">
-        <v>5516</v>
+        <v>19132</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M22" s="7">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="N22" s="7">
-        <v>22237</v>
+        <v>63094</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2046,268 +1977,61 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D23" s="7">
-        <v>20965</v>
+        <v>62277</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="I23" s="7">
-        <v>18923</v>
+        <v>49843</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c r="N23" s="7">
-        <v>39889</v>
+        <v>112120</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>12</v>
-      </c>
-      <c r="D24" s="7">
-        <v>10438</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H24" s="7">
-        <v>41</v>
-      </c>
-      <c r="I24" s="7">
-        <v>27316</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="K24" s="7" t="s">
+      <c r="A24" t="s">
         <v>144</v>
       </c>
-      <c r="L24" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M24" s="7">
-        <v>53</v>
-      </c>
-      <c r="N24" s="7">
-        <v>37754</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="7">
-        <v>9</v>
-      </c>
-      <c r="D25" s="7">
-        <v>8277</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H25" s="7">
-        <v>11</v>
-      </c>
-      <c r="I25" s="7">
-        <v>5705</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="M25" s="7">
-        <v>20</v>
-      </c>
-      <c r="N25" s="7">
-        <v>13983</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="7">
-        <v>56</v>
-      </c>
-      <c r="D26" s="7">
-        <v>46508</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H26" s="7">
-        <v>33</v>
-      </c>
-      <c r="I26" s="7">
-        <v>20695</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="M26" s="7">
-        <v>89</v>
-      </c>
-      <c r="N26" s="7">
-        <v>67204</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>77</v>
-      </c>
-      <c r="D27" s="7">
-        <v>65223</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="7">
-        <v>85</v>
-      </c>
-      <c r="I27" s="7">
-        <v>53717</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M27" s="7">
-        <v>162</v>
-      </c>
-      <c r="N27" s="7">
-        <v>118940</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>167</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
